--- a/lastNamePatterns.xlsx
+++ b/lastNamePatterns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockton0-my.sharepoint.com/personal/dale_campbell_stockton_edu/Documents/Desktop/DSSA-5001-Assignment-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13045\DSSA-5001-Assignment-2-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B52C345-A076-40C3-872F-EE5FBBA859A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F7BF84-2DEE-40E5-AF43-1714A0D8958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{A828BE86-46B3-4181-A530-23980FE81D15}"/>
+    <workbookView xWindow="29250" yWindow="2835" windowWidth="21600" windowHeight="11295" xr2:uid="{A828BE86-46B3-4181-A530-23980FE81D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,109 +456,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2A4D36-90AF-4ED6-8B40-310999029C6E}">
-  <dimension ref="D2:AB12"/>
+  <dimension ref="C1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
+    <row r="1" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="3:28" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
       <c r="AB2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
+    <row r="3" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
       <c r="N3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>
